--- a/AAAGameData/DataTables/Core/UIGroupTable.xlsx
+++ b/AAAGameData/DataTables/Core/UIGroupTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个组的起始Order,用于控制显示顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +440,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -445,7 +449,7 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -491,6 +495,9 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5">
@@ -503,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -517,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -531,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
